--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7497,16 +7500,16 @@
         <v>18488</v>
       </c>
       <c r="I173">
-        <v>7172</v>
+        <v>7176</v>
       </c>
       <c r="J173">
         <v>11360</v>
       </c>
       <c r="K173">
-        <v>14223</v>
+        <v>14243</v>
       </c>
       <c r="L173">
-        <v>58003</v>
+        <v>57978</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7532,19 +7535,19 @@
         <v>5267</v>
       </c>
       <c r="H174">
-        <v>23031</v>
+        <v>23033</v>
       </c>
       <c r="I174">
-        <v>7907</v>
+        <v>7911</v>
       </c>
       <c r="J174">
         <v>11053</v>
       </c>
       <c r="K174">
-        <v>14616</v>
+        <v>14636</v>
       </c>
       <c r="L174">
-        <v>58978</v>
+        <v>58952</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7567,22 +7570,60 @@
         <v>868</v>
       </c>
       <c r="G175">
-        <v>9486</v>
+        <v>9736</v>
       </c>
       <c r="H175">
-        <v>15909</v>
+        <v>15911</v>
       </c>
       <c r="I175">
-        <v>7222</v>
+        <v>7227</v>
       </c>
       <c r="J175">
         <v>11513</v>
       </c>
       <c r="K175">
-        <v>15099</v>
+        <v>14869</v>
       </c>
       <c r="L175">
-        <v>59872</v>
+        <v>59846</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176">
+        <v>7325</v>
+      </c>
+      <c r="C176">
+        <v>64083</v>
+      </c>
+      <c r="D176">
+        <v>56758</v>
+      </c>
+      <c r="E176">
+        <v>120841</v>
+      </c>
+      <c r="F176">
+        <v>1495</v>
+      </c>
+      <c r="G176">
+        <v>5494</v>
+      </c>
+      <c r="H176">
+        <v>18430</v>
+      </c>
+      <c r="I176">
+        <v>7522</v>
+      </c>
+      <c r="J176">
+        <v>12157</v>
+      </c>
+      <c r="K176">
+        <v>14635</v>
+      </c>
+      <c r="L176">
+        <v>61109</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7626,6 +7629,17 @@
         <v>61109</v>
       </c>
     </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177">
+        <v>66686</v>
+      </c>
+      <c r="D177">
+        <v>60403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -7520,16 +7520,16 @@
         <v>184</v>
       </c>
       <c r="B174">
-        <v>7107</v>
+        <v>7057</v>
       </c>
       <c r="C174">
         <v>64340</v>
       </c>
       <c r="D174">
-        <v>57233</v>
+        <v>57283</v>
       </c>
       <c r="E174">
-        <v>121573</v>
+        <v>121623</v>
       </c>
       <c r="F174">
         <v>720</v>
@@ -7547,10 +7547,10 @@
         <v>11053</v>
       </c>
       <c r="K174">
-        <v>14636</v>
+        <v>14656</v>
       </c>
       <c r="L174">
-        <v>58952</v>
+        <v>58982</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7558,16 +7558,16 @@
         <v>185</v>
       </c>
       <c r="B175">
-        <v>6860</v>
+        <v>6760</v>
       </c>
       <c r="C175">
         <v>63415</v>
       </c>
       <c r="D175">
-        <v>56555</v>
+        <v>56655</v>
       </c>
       <c r="E175">
-        <v>119970</v>
+        <v>120070</v>
       </c>
       <c r="F175">
         <v>868</v>
@@ -7576,19 +7576,19 @@
         <v>9736</v>
       </c>
       <c r="H175">
-        <v>15911</v>
+        <v>16011</v>
       </c>
       <c r="I175">
-        <v>7227</v>
+        <v>7277</v>
       </c>
       <c r="J175">
         <v>11513</v>
       </c>
       <c r="K175">
-        <v>14869</v>
+        <v>14889</v>
       </c>
       <c r="L175">
-        <v>59846</v>
+        <v>59776</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7596,48 +7596,75 @@
         <v>186</v>
       </c>
       <c r="B176">
-        <v>7325</v>
+        <v>7225</v>
       </c>
       <c r="C176">
         <v>64083</v>
       </c>
       <c r="D176">
-        <v>56758</v>
+        <v>56858</v>
       </c>
       <c r="E176">
-        <v>120841</v>
+        <v>120941</v>
       </c>
       <c r="F176">
         <v>1495</v>
       </c>
       <c r="G176">
-        <v>5494</v>
+        <v>5524</v>
       </c>
       <c r="H176">
-        <v>18430</v>
+        <v>18530</v>
       </c>
       <c r="I176">
-        <v>7522</v>
+        <v>7572</v>
       </c>
       <c r="J176">
         <v>12157</v>
       </c>
       <c r="K176">
-        <v>14635</v>
+        <v>14625</v>
       </c>
       <c r="L176">
-        <v>61109</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>61039</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>187</v>
       </c>
+      <c r="B177">
+        <v>6183</v>
+      </c>
       <c r="C177">
         <v>66686</v>
       </c>
       <c r="D177">
-        <v>60403</v>
+        <v>60503</v>
+      </c>
+      <c r="E177">
+        <v>127189</v>
+      </c>
+      <c r="F177">
+        <v>1017</v>
+      </c>
+      <c r="G177">
+        <v>8663</v>
+      </c>
+      <c r="H177">
+        <v>18981</v>
+      </c>
+      <c r="I177">
+        <v>8792</v>
+      </c>
+      <c r="J177">
+        <v>13420</v>
+      </c>
+      <c r="K177">
+        <v>14578</v>
+      </c>
+      <c r="L177">
+        <v>61739</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7667,6 +7670,17 @@
         <v>61739</v>
       </c>
     </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178">
+        <v>70547</v>
+      </c>
+      <c r="D178">
+        <v>64849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -7588,10 +7588,10 @@
         <v>11513</v>
       </c>
       <c r="K175">
-        <v>14889</v>
+        <v>14961</v>
       </c>
       <c r="L175">
-        <v>59776</v>
+        <v>59704</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7620,16 +7620,16 @@
         <v>18530</v>
       </c>
       <c r="I176">
-        <v>7572</v>
+        <v>7597</v>
       </c>
       <c r="J176">
         <v>12157</v>
       </c>
       <c r="K176">
-        <v>14625</v>
+        <v>14697</v>
       </c>
       <c r="L176">
-        <v>61039</v>
+        <v>60942</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7652,33 +7652,60 @@
         <v>1017</v>
       </c>
       <c r="G177">
-        <v>8663</v>
+        <v>8763</v>
       </c>
       <c r="H177">
         <v>18981</v>
       </c>
       <c r="I177">
-        <v>8792</v>
+        <v>8817</v>
       </c>
       <c r="J177">
         <v>13420</v>
       </c>
       <c r="K177">
-        <v>14578</v>
+        <v>14550</v>
       </c>
       <c r="L177">
-        <v>61739</v>
+        <v>61642</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>188</v>
       </c>
+      <c r="B178">
+        <v>5698</v>
+      </c>
       <c r="C178">
         <v>70547</v>
       </c>
       <c r="D178">
         <v>64849</v>
+      </c>
+      <c r="E178">
+        <v>135397</v>
+      </c>
+      <c r="F178">
+        <v>1429</v>
+      </c>
+      <c r="G178">
+        <v>10706</v>
+      </c>
+      <c r="H178">
+        <v>19087</v>
+      </c>
+      <c r="I178">
+        <v>9512</v>
+      </c>
+      <c r="J178">
+        <v>14799</v>
+      </c>
+      <c r="K178">
+        <v>16776</v>
+      </c>
+      <c r="L178">
+        <v>63086</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7708,6 +7711,17 @@
         <v>63086</v>
       </c>
     </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179">
+        <v>70711</v>
+      </c>
+      <c r="D179">
+        <v>67425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
